--- a/2018/工作计划.xlsx
+++ b/2018/工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="2"/>
+    <workbookView windowWidth="18468" windowHeight="9924" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2018年度计划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>序号</t>
   </si>
@@ -176,6 +176,38 @@
   </si>
   <si>
     <t>第三周</t>
+  </si>
+  <si>
+    <t>2018.3.12</t>
+  </si>
+  <si>
+    <t>2018.3.13</t>
+  </si>
+  <si>
+    <t>利用Selenium爬取宇通客车产销快报
+1、Webdriver驱动的安装
+2、利用link_text定位元素，利用geb_attribute获取属性值
+3、webdriver设置firefox开启pdf自动下载</t>
+  </si>
+  <si>
+    <t>2018.3.14</t>
+  </si>
+  <si>
+    <t>1、AutoIt实现自动上传
+2、Mysql+Navicat for MySQL环境安装
+3、入库改造</t>
+  </si>
+  <si>
+    <t>2018.3.15</t>
+  </si>
+  <si>
+    <t>2018.3.16</t>
+  </si>
+  <si>
+    <t>2018.3.17</t>
+  </si>
+  <si>
+    <t>2018.3.18</t>
   </si>
   <si>
     <t>第四周</t>
@@ -186,10 +218,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -208,6 +240,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -216,63 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -298,10 +355,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,40 +370,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,181 +411,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +655,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,9 +692,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,30 +721,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,11 +742,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,10 +756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,137 +768,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,18 +925,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1285,84 +1305,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1390,28 +1410,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1463,8 +1483,8 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1556,7 +1576,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6"/>
-      <c r="K4" s="14"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3"/>
@@ -1657,225 +1677,243 @@
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" ht="72" spans="1:8">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" ht="86.4" spans="1:8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" ht="57.6" spans="1:8">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10"/>
+      <c r="A26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="13"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/2018/工作计划.xlsx
+++ b/2018/工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9924" activeTab="2"/>
+    <workbookView windowWidth="18468" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018年度计划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>序号</t>
   </si>
@@ -62,6 +62,17 @@
   </si>
   <si>
     <t>嵌入式GPIO、中断、定时器、串口</t>
+  </si>
+  <si>
+    <t>YT产销数据入库</t>
+  </si>
+  <si>
+    <t>1、从网站自动下载pdf文档并转换为excel（已完成）
+2、将单个excel中的数据入库
+3、可以通过网页内容自动传递文件名（excel）名字
+3、实现日期判断（判断数据库中有没有记录），返回结果
+4、输入日期（不输入则默认为当前日期），根据日期判断的结果决定是否去网站下载数据，下载完自动入库
+距离：当前日期为2018.3，判断起始日期（比如2017.1）到当前日期哪些月份没有数据，没有数据的自动入库</t>
   </si>
   <si>
     <t>周</t>
@@ -218,10 +229,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -240,8 +251,122 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,120 +394,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -411,13 +422,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,163 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,15 +662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -701,15 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -743,8 +736,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,145 +767,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1395,14 +1406,14 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.4537037037037" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1111111111111" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.7314814814815" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.0925925925926" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.2685185185185" style="1" customWidth="1"/>
@@ -1459,9 +1470,13 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+    <row r="6" ht="184" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
@@ -1483,7 +1498,7 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1502,40 +1517,40 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1545,17 +1560,17 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -1563,16 +1578,16 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6"/>
@@ -1582,16 +1597,16 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="6"/>
@@ -1600,7 +1615,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1612,11 +1627,11 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1626,14 +1641,14 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="6"/>
@@ -1642,7 +1657,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1654,10 +1669,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1668,7 +1683,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="4"/>
@@ -1678,7 +1693,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1723,10 +1738,10 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1755,11 +1770,11 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1771,11 +1786,11 @@
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -1785,10 +1800,10 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1799,7 +1814,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1811,7 +1826,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1823,7 +1838,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1835,7 +1850,7 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1845,7 +1860,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>

--- a/2018/工作计划.xlsx
+++ b/2018/工作计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>序号</t>
   </si>
@@ -209,7 +209,24 @@
 3、入库改造</t>
   </si>
   <si>
+    <t>1、实现了pdf文档的下载、上传（未实现参数化）</t>
+  </si>
+  <si>
+    <t>1、在家里面用AutoIt时不能识别控件
+2、Git Extension用户与权限问题
+3、Git Extension语言和不能拉取新增加的文件夹问题</t>
+  </si>
+  <si>
     <t>2018.3.15</t>
+  </si>
+  <si>
+    <t>1、解决昨天遗留问题
+2、着手解决入库问题
+3、有时间在工作电脑上安装linux系统</t>
+  </si>
+  <si>
+    <t>1、主要是着手解决软件复位问题，没有完全解决
+2、linux系统安装失败，可能是因为主板不一样</t>
   </si>
   <si>
     <t>2018.3.16</t>
@@ -251,6 +268,72 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -259,6 +342,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -267,28 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +372,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,13 +396,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -325,30 +404,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -356,44 +411,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -422,19 +439,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,37 +589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,115 +601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,6 +679,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -673,6 +708,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,33 +776,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -767,10 +784,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,133 +796,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1407,7 +1424,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1498,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1679,7 +1696,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" ht="62" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
@@ -1796,7 +1813,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" ht="57.6" spans="1:8">
+    <row r="21" ht="86.4" spans="1:8">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="4" t="s">
@@ -1805,19 +1822,27 @@
       <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" ht="57.6" spans="1:8">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="6"/>
@@ -1826,7 +1851,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1838,7 +1863,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1850,7 +1875,7 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1860,7 +1885,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>

--- a/2018/工作计划.xlsx
+++ b/2018/工作计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JianLpeng\DailyWork\2018\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575CEBB3-D545-4BD5-BF34-85FF6895FEF1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18468" windowHeight="9924" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15275" windowHeight="6444" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2018年度计划" sheetId="4" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>序号</t>
   </si>
@@ -210,6 +204,14 @@
     <t>2018.3.14</t>
   </si>
   <si>
+    <t>1、AutoIt实现自动上传
+2、Mysql+Navicat for MySQL环境安装
+3、入库改造</t>
+  </si>
+  <si>
+    <t>1、实现了pdf文档的下载、上传（未实现参数化）</t>
+  </si>
+  <si>
     <t>1、在家里面用AutoIt时不能识别控件
 2、Git Extension用户与权限问题
 3、Git Extension语言和不能拉取新增加的文件夹问题</t>
@@ -231,27 +233,6 @@
   </si>
   <si>
     <t>2018.3.17</t>
-  </si>
-  <si>
-    <t>2018.3.18</t>
-  </si>
-  <si>
-    <t>第四周</t>
-  </si>
-  <si>
-    <t>1、AutoIt实现自动上传
-2、Mysql+Navicat for MySQL环境安装
-3、入库改造</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、实现了pdf文档的下载、上传（未实现参数化）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、git环境重新安装
-2、解决autoit参数上传问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、修复github环境
@@ -262,14 +243,32 @@
  2）python基本数据库操作
  3）实现单个文件的入库
  4）将前面的实现合并</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、git环境重新安装
+2、解决autoit参数上传问题</t>
+  </si>
+  <si>
+    <t>2018.3.18</t>
+  </si>
+  <si>
+    <t>啥也没干，出去玩了</t>
+  </si>
+  <si>
+    <t>第四周</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,13 +285,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +454,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -378,9 +701,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -395,7 +960,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -412,36 +995,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -728,223 +1337,225 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:2">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="27" customHeight="1" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="28.05" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="28.8" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="184.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="184.05" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6666666666667" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -970,406 +1581,408 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="28.8" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="57.6" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="3" t="s">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" ht="72" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="12"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="3" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="3" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" ht="28.8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="3" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="12"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="12"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" ht="72" spans="1:8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="12"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="12"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="3" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" ht="86.4" spans="1:8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="3" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" ht="86.4" spans="1:8">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" ht="57.6" spans="1:8">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" ht="115.2" spans="1:8">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="12"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="12"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="12"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="13"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1387,22 +2000,25 @@
     <mergeCell ref="H19:H25"/>
     <mergeCell ref="H26:H32"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018/工作计划.xlsx
+++ b/2018/工作计划.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JianLpeng\DailyWork\2018\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:400001_{CFDDDD6A-272F-4A72-B57A-21E654EF7D02}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15276" windowHeight="6444" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9924" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2018年度计划" sheetId="4" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>序号</t>
   </si>
@@ -263,12 +257,44 @@
   <si>
     <t>第四周</t>
   </si>
+  <si>
+    <t>2018.3.19</t>
+  </si>
+  <si>
+    <t>1、完成单个文件的入库(DatabaseTest.py)
+2、《开发规范》
+3、Inner全局变量整理</t>
+  </si>
+  <si>
+    <t>2018.3.20</t>
+  </si>
+  <si>
+    <t>2018.3.21</t>
+  </si>
+  <si>
+    <t>2018.3.22</t>
+  </si>
+  <si>
+    <t>2018.3.23</t>
+  </si>
+  <si>
+    <t>2018.3.24</t>
+  </si>
+  <si>
+    <t>2018.3.25</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,13 +311,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +480,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -377,9 +727,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -394,7 +986,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -411,36 +1021,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -727,223 +1363,225 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="1" max="1" width="11.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:2">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:2">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:2">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.2222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1111111111111" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1111111111111" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.2222222222222" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="45" customHeight="1" spans="1:4">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="27" customHeight="1" spans="1:4">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="28.05" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" ht="28.8" spans="1:4">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="184.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" ht="184.05" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.8888888888889" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.4444444444444" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.6666666666667" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
@@ -969,416 +1607,427 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" ht="28.8" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" ht="57.6" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="3" t="s">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" ht="72" spans="1:11">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="11"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="3" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="3" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" ht="28.8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="3" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="3" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="D11" s="8"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="11"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="3" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" ht="72" spans="1:8">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" ht="86.4" spans="1:8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="3" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" ht="86.4" spans="1:8">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="3" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" ht="57.6" spans="1:8">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="3" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="3" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" ht="115.2" spans="1:8">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="3" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" ht="57.6" spans="1:8">
+      <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="12"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="H26:H32"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A25"/>
@@ -1387,23 +2036,31 @@
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="B26:B32"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="H12:H18"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="H26:H32"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018/工作计划.xlsx
+++ b/2018/工作计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>序号</t>
   </si>
@@ -272,13 +272,32 @@
     <t>2018.3.21</t>
   </si>
   <si>
+    <t>1、基本完成宇通客车产销快报的入库功能，但是肯定还有bug，未经过完整的测试
+2、微信聊天程序，见wechat.py</t>
+  </si>
+  <si>
     <t>2018.3.22</t>
   </si>
   <si>
+    <t>1、在V1.4版本上增加IAP升级功能</t>
+  </si>
+  <si>
     <t>2018.3.23</t>
   </si>
   <si>
+    <t xml:space="preserve">
+1、版本基本稳定，待发布。（廖还没有烧录版本）
+2、MFC串口变成见工作明细</t>
+  </si>
+  <si>
+    <t>1、一定要注意文件的及时整理，不需要的文件及时删除</t>
+  </si>
+  <si>
     <t>2018.3.24</t>
+  </si>
+  <si>
+    <t>1、宇通客车产销快报—最终整理
+2、学习linux、机器学习</t>
   </si>
   <si>
     <t>2018.3.25</t>
@@ -289,10 +308,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -312,42 +331,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,6 +353,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -377,9 +368,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +384,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,16 +437,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,7 +446,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,15 +467,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,187 +501,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,26 +741,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -776,52 +815,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,10 +846,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -845,133 +858,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1564,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1966,49 +1979,59 @@
       <c r="G27" s="4"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" ht="57.6" spans="1:8">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" ht="28.8" spans="1:8">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" ht="57.6" spans="1:8">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" ht="43.2" spans="1:8">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2018,7 +2041,7 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
